--- a/Assets/Originals/Excels/Inventory/InventoryMessage.xlsx
+++ b/Assets/Originals/Excels/Inventory/InventoryMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD64EAA-B488-4F01-AFAB-2DDF89F7030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F03311-2739-495A-9430-6C1B4CCF37C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +58,16 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナ増強中のため、使用できません。</t>
+    <rPh sb="4" eb="7">
+      <t>ゾウキョウチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -390,7 +400,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -431,6 +441,9 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
